--- a/src/assets/formatos/Formato Carga de Usuarios.xlsx
+++ b/src/assets/formatos/Formato Carga de Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC5FB2F-6F7B-4C2D-AEF6-8AD8E5367BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DD129-B08F-4F26-A57D-C2241D8D6676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -52,13 +52,37 @@
   </si>
   <si>
     <t>Formato para la Carga de Usuarios.                                                           (Nota no Modificar los nombres de las columnas)</t>
+  </si>
+  <si>
+    <t>Mario Alberto</t>
+  </si>
+  <si>
+    <t>Rodriguez Roldan</t>
+  </si>
+  <si>
+    <t>mario@tesi.org</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Ari Argenis</t>
+  </si>
+  <si>
+    <t>Rodriguez Bautista</t>
+  </si>
+  <si>
+    <t>ari@tesi.org</t>
+  </si>
+  <si>
+    <t>ISC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,6 +111,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -108,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,76 +156,43 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53"/>
   </cellStyles>
@@ -765,14 +772,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1438274</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1057274</xdr:colOff>
+      <xdr:colOff>2505074</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>739830</xdr:rowOff>
     </xdr:to>
@@ -803,7 +810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924799" y="0"/>
+          <a:off x="8934449" y="0"/>
           <a:ext cx="1076325" cy="739830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1113,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1126,313 +1133,106 @@
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
     <col min="8" max="1018" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="58.5" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9">
+        <v>123456</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{41370590-E472-4772-BDD7-9DFCAB7B8138}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{28EC83DD-9B7B-4BDB-87DE-DB2982D2A6D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter differentFirst="1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/assets/formatos/Formato Carga de Usuarios.xlsx
+++ b/src/assets/formatos/Formato Carga de Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DD129-B08F-4F26-A57D-C2241D8D6676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB999E-2CAB-4DDB-AC95-7B0C43197954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -53,36 +53,12 @@
   <si>
     <t>Formato para la Carga de Usuarios.                                                           (Nota no Modificar los nombres de las columnas)</t>
   </si>
-  <si>
-    <t>Mario Alberto</t>
-  </si>
-  <si>
-    <t>Rodriguez Roldan</t>
-  </si>
-  <si>
-    <t>mario@tesi.org</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Ari Argenis</t>
-  </si>
-  <si>
-    <t>Rodriguez Bautista</t>
-  </si>
-  <si>
-    <t>ari@tesi.org</t>
-  </si>
-  <si>
-    <t>ISC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,14 +83,6 @@
     <font>
       <sz val="22"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -157,12 +125,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,26 +140,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53"/>
   </cellStyles>
@@ -215,13 +168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -258,13 +211,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -301,13 +254,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -344,13 +297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -387,13 +340,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -430,13 +383,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -473,13 +426,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -516,13 +469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -559,13 +512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -602,13 +555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -645,13 +598,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -688,13 +641,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -731,13 +684,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1120,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1139,14 +1092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
@@ -1172,80 +1125,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="G7" s="8"/>
+    <row r="5" spans="1:7">
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{41370590-E472-4772-BDD7-9DFCAB7B8138}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{28EC83DD-9B7B-4BDB-87DE-DB2982D2A6D2}"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E2DB502ABF570459D92EAB368475EB9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc33ec95a03d3916ee7c550885e77c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad" xmlns:ns4="112e49ae-75ca-444f-98be-3b3ec7e22459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9408b6cd564dfbdec8defa50352aa754" ns3:_="" ns4:_="">
     <xsd:import namespace="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
@@ -1416,6 +1310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1423,14 +1326,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91726C-1B1F-487D-8645-98B7DB2DCA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1445,6 +1340,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/formatos/Formato Carga de Usuarios.xlsx
+++ b/src/assets/formatos/Formato Carga de Usuarios.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciak3\Desktop\Tesi Indicadores\Tesi Indicadores Fron End\Tesi-Indicadores-FrontEnd\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB999E-2CAB-4DDB-AC95-7B0C43197954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B1339-9B82-4383-B99F-A6C536484EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,7 +48,94 @@
     <t>Carrera</t>
   </si>
   <si>
-    <t>Formato para la Carga de Usuarios.                                                           (Nota no Modificar los nombres de las columnas)</t>
+    <t>Mario Alberto</t>
+  </si>
+  <si>
+    <t>Rodriguez Roldan</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>Ari Argenis</t>
+  </si>
+  <si>
+    <t>Rodriguez Bautista</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Martinez Juan</t>
+  </si>
+  <si>
+    <t>carlos@tesi.org</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>martha@tesi.org</t>
+  </si>
+  <si>
+    <t>Ebner</t>
+  </si>
+  <si>
+    <t>ebner@tesi.org</t>
+  </si>
+  <si>
+    <t>Jose Manuel</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Casanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez </t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>josemanuel@tesi.org</t>
+  </si>
+  <si>
+    <t>diana@tesi.org</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>angel@tesi.org</t>
+  </si>
+  <si>
+    <t>mario@tesi.org</t>
+  </si>
+  <si>
+    <t>ari@tesi.org</t>
+  </si>
+  <si>
+    <t>james@tesi.org</t>
+  </si>
+  <si>
+    <t>James Alfredo</t>
   </si>
 </sst>
 </file>
@@ -81,13 +165,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,8 +172,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +199,13 @@
         <bgColor rgb="FF71C525"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,28 +213,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53"/>
   </cellStyles>
@@ -168,13 +294,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -211,13 +337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -254,13 +380,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -297,13 +423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -340,13 +466,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -383,13 +509,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -426,13 +552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -469,13 +595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,13 +638,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -555,13 +681,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -598,13 +724,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -641,13 +767,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -683,15 +809,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>132720</xdr:rowOff>
+      <xdr:colOff>19410</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -710,7 +836,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2581275"/>
+          <a:off x="19050" y="2133600"/>
           <a:ext cx="360" cy="894720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -725,50 +851,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2505074</xdr:colOff>
+      <xdr:colOff>2495551</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>739830</xdr:rowOff>
+      <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15">
+        <xdr:cNvPr id="17" name="Imagen 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781A3794-159C-4A0B-8909-21D14BF1B74A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D25602-855A-44DA-8A07-C0E7244E5A64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8934449" y="0"/>
-          <a:ext cx="1076325" cy="739830"/>
+          <a:off x="1" y="0"/>
+          <a:ext cx="10001250" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1073,65 +1210,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:AMD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" customWidth="1"/>
-    <col min="8" max="1018" width="10.5703125" customWidth="1"/>
+    <col min="8" max="1018" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="1019" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="81" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="G5" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
@@ -1140,6 +1648,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E2DB502ABF570459D92EAB368475EB9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc33ec95a03d3916ee7c550885e77c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad" xmlns:ns4="112e49ae-75ca-444f-98be-3b3ec7e22459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9408b6cd564dfbdec8defa50352aa754" ns3:_="" ns4:_="">
     <xsd:import namespace="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
@@ -1310,22 +1833,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC51C9C-65B9-47FB-87B3-21CF863618C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="112e49ae-75ca-444f-98be-3b3ec7e22459"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91726C-1B1F-487D-8645-98B7DB2DCA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1342,29 +1875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC51C9C-65B9-47FB-87B3-21CF863618C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="112e49ae-75ca-444f-98be-3b3ec7e22459"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>